--- a/data/lu/original_data/lu2020.xlsx
+++ b/data/lu/original_data/lu2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3086,11 +3086,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1__2" displayName="Table1__2" ref="A1:K568" totalsRowShown="0">
-  <autoFilter ref="A1:K568">
-    <filterColumn colId="3">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K568"/>
   <tableColumns count="11">
     <tableColumn id="8" name="institution"/>
     <tableColumn id="9" name="period" dataDxfId="0"/>
@@ -3408,7 +3404,7 @@
   <dimension ref="A1:K568"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K538" sqref="K538"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3448,7 +3444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -3471,7 +3467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3494,7 +3490,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3517,7 +3513,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3540,7 +3536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -3563,7 +3559,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -3586,7 +3582,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3609,7 +3605,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3632,7 +3628,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3655,7 +3651,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3678,7 +3674,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3701,7 +3697,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -3724,7 +3720,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -3747,7 +3743,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -3770,7 +3766,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -3793,7 +3789,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -3816,7 +3812,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -3839,7 +3835,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -3862,7 +3858,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -3885,7 +3881,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -3908,7 +3904,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -3931,7 +3927,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -3954,7 +3950,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -3977,7 +3973,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -4000,7 +3996,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -4023,7 +4019,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -4046,7 +4042,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -4069,7 +4065,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -4092,7 +4088,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -4115,7 +4111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -4138,7 +4134,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -4161,7 +4157,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -4184,7 +4180,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -4207,7 +4203,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -4230,7 +4226,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -4253,7 +4249,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -4276,7 +4272,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -4299,7 +4295,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -4322,7 +4318,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -4345,7 +4341,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -4368,7 +4364,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -4391,7 +4387,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -4414,7 +4410,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -4437,7 +4433,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -4460,7 +4456,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -4483,7 +4479,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -4506,7 +4502,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -4529,7 +4525,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -4552,7 +4548,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -4575,7 +4571,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -4598,7 +4594,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -4621,7 +4617,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -4644,7 +4640,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -4667,7 +4663,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -4690,7 +4686,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -4713,7 +4709,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -4736,7 +4732,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -4759,7 +4755,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -4782,7 +4778,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -4805,7 +4801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -4828,7 +4824,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -4851,7 +4847,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -4874,7 +4870,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -4897,7 +4893,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -4920,7 +4916,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -4943,7 +4939,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -4966,7 +4962,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -4989,7 +4985,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -5012,7 +5008,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -5035,7 +5031,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -5058,7 +5054,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -5081,7 +5077,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -5104,7 +5100,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -5127,7 +5123,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -5150,7 +5146,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -5173,7 +5169,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -5196,7 +5192,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -5219,7 +5215,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -5242,7 +5238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -5265,7 +5261,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -5288,7 +5284,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -5311,7 +5307,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -5334,7 +5330,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -5357,7 +5353,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -5380,7 +5376,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -5403,7 +5399,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -5426,7 +5422,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -5449,7 +5445,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -5472,7 +5468,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -5495,7 +5491,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -5518,7 +5514,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -5541,7 +5537,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -5564,7 +5560,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -5587,7 +5583,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -5610,7 +5606,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -5633,7 +5629,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -5656,7 +5652,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -5679,7 +5675,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -5702,7 +5698,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -5725,7 +5721,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -5771,7 +5767,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>9</v>
       </c>
@@ -5794,7 +5790,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>9</v>
       </c>
@@ -5817,7 +5813,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -5840,7 +5836,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -5863,7 +5859,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -5886,7 +5882,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>9</v>
       </c>
@@ -5909,7 +5905,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -5932,7 +5928,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>9</v>
       </c>
@@ -5955,7 +5951,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>9</v>
       </c>
@@ -5978,7 +5974,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>9</v>
       </c>
@@ -6001,7 +5997,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>9</v>
       </c>
@@ -6024,7 +6020,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>9</v>
       </c>
@@ -6047,7 +6043,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>9</v>
       </c>
@@ -6070,7 +6066,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -6093,7 +6089,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>9</v>
       </c>
@@ -6116,7 +6112,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -6139,7 +6135,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>9</v>
       </c>
@@ -6162,7 +6158,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>9</v>
       </c>
@@ -6185,7 +6181,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -6208,7 +6204,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>9</v>
       </c>
@@ -6231,7 +6227,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>9</v>
       </c>
@@ -6254,7 +6250,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>9</v>
       </c>
@@ -6277,7 +6273,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>9</v>
       </c>
@@ -6300,7 +6296,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>9</v>
       </c>
@@ -6323,7 +6319,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>9</v>
       </c>
@@ -6346,7 +6342,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>9</v>
       </c>
@@ -6369,7 +6365,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>9</v>
       </c>
@@ -6392,7 +6388,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>9</v>
       </c>
@@ -6415,7 +6411,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>9</v>
       </c>
@@ -6438,7 +6434,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>9</v>
       </c>
@@ -6461,7 +6457,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>9</v>
       </c>
@@ -6484,7 +6480,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>9</v>
       </c>
@@ -6507,7 +6503,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>9</v>
       </c>
@@ -6530,7 +6526,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>9</v>
       </c>
@@ -6553,7 +6549,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -6576,7 +6572,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>9</v>
       </c>
@@ -6599,7 +6595,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -6622,7 +6618,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>9</v>
       </c>
@@ -6645,7 +6641,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>9</v>
       </c>
@@ -6668,7 +6664,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>9</v>
       </c>
@@ -6691,7 +6687,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>9</v>
       </c>
@@ -6714,7 +6710,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>9</v>
       </c>
@@ -6737,7 +6733,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>9</v>
       </c>
@@ -6760,7 +6756,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>9</v>
       </c>
@@ -6783,7 +6779,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -6806,7 +6802,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>9</v>
       </c>
@@ -6829,7 +6825,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>9</v>
       </c>
@@ -6852,7 +6848,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>9</v>
       </c>
@@ -6875,7 +6871,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>9</v>
       </c>
@@ -6898,7 +6894,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>9</v>
       </c>
@@ -6921,7 +6917,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>9</v>
       </c>
@@ -6944,7 +6940,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>9</v>
       </c>
@@ -6967,7 +6963,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>9</v>
       </c>
@@ -6990,7 +6986,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>9</v>
       </c>
@@ -7013,7 +7009,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>9</v>
       </c>
@@ -7036,7 +7032,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -7059,7 +7055,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>9</v>
       </c>
@@ -7082,7 +7078,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>9</v>
       </c>
@@ -7105,7 +7101,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>9</v>
       </c>
@@ -7128,7 +7124,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>9</v>
       </c>
@@ -7151,7 +7147,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>9</v>
       </c>
@@ -7174,7 +7170,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>9</v>
       </c>
@@ -7197,7 +7193,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>9</v>
       </c>
@@ -7220,7 +7216,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>9</v>
       </c>
@@ -7243,7 +7239,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>9</v>
       </c>
@@ -7266,7 +7262,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>9</v>
       </c>
@@ -7289,7 +7285,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>9</v>
       </c>
@@ -7312,7 +7308,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>9</v>
       </c>
@@ -7335,7 +7331,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>9</v>
       </c>
@@ -7358,7 +7354,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>9</v>
       </c>
@@ -7381,7 +7377,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>9</v>
       </c>
@@ -7404,7 +7400,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>9</v>
       </c>
@@ -7427,7 +7423,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>9</v>
       </c>
@@ -7450,7 +7446,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>9</v>
       </c>
@@ -7473,7 +7469,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>9</v>
       </c>
@@ -7496,7 +7492,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>9</v>
       </c>
@@ -7519,7 +7515,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>9</v>
       </c>
@@ -7542,7 +7538,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>9</v>
       </c>
@@ -7565,7 +7561,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>9</v>
       </c>
@@ -7588,7 +7584,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>9</v>
       </c>
@@ -7611,7 +7607,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>9</v>
       </c>
@@ -7634,7 +7630,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>9</v>
       </c>
@@ -7657,7 +7653,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>9</v>
       </c>
@@ -7680,7 +7676,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>9</v>
       </c>
@@ -7703,7 +7699,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>9</v>
       </c>
@@ -7726,7 +7722,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>9</v>
       </c>
@@ -7749,7 +7745,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>9</v>
       </c>
@@ -7772,7 +7768,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>9</v>
       </c>
@@ -7795,7 +7791,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>9</v>
       </c>
@@ -7818,7 +7814,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>9</v>
       </c>
@@ -7841,7 +7837,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>9</v>
       </c>
@@ -7864,7 +7860,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>9</v>
       </c>
@@ -7887,7 +7883,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>9</v>
       </c>
@@ -7910,7 +7906,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>9</v>
       </c>
@@ -7933,7 +7929,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>9</v>
       </c>
@@ -7956,7 +7952,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>9</v>
       </c>
@@ -7979,7 +7975,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>9</v>
       </c>
@@ -8002,7 +7998,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>9</v>
       </c>
@@ -8025,7 +8021,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>9</v>
       </c>
@@ -8048,7 +8044,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>9</v>
       </c>
@@ -8071,7 +8067,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>9</v>
       </c>
@@ -8094,7 +8090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>9</v>
       </c>
@@ -8117,7 +8113,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>9</v>
       </c>
@@ -8140,7 +8136,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>9</v>
       </c>
@@ -8163,7 +8159,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>9</v>
       </c>
@@ -8186,7 +8182,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>9</v>
       </c>
@@ -8209,7 +8205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>9</v>
       </c>
@@ -8232,7 +8228,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>9</v>
       </c>
@@ -8255,7 +8251,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>9</v>
       </c>
@@ -8278,7 +8274,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>9</v>
       </c>
@@ -8301,7 +8297,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>9</v>
       </c>
@@ -8324,7 +8320,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>9</v>
       </c>
@@ -8347,7 +8343,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>9</v>
       </c>
@@ -8370,7 +8366,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>9</v>
       </c>
@@ -8393,7 +8389,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>9</v>
       </c>
@@ -8416,7 +8412,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>9</v>
       </c>
@@ -8439,7 +8435,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>9</v>
       </c>
@@ -8462,7 +8458,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>9</v>
       </c>
@@ -8485,7 +8481,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>9</v>
       </c>
@@ -8508,7 +8504,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>9</v>
       </c>
@@ -8531,7 +8527,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>9</v>
       </c>
@@ -8554,7 +8550,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>9</v>
       </c>
@@ -8577,7 +8573,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>9</v>
       </c>
@@ -8600,7 +8596,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>9</v>
       </c>
@@ -8623,7 +8619,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>9</v>
       </c>
@@ -8646,7 +8642,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>9</v>
       </c>
@@ -8669,7 +8665,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>9</v>
       </c>
@@ -8692,7 +8688,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>9</v>
       </c>
@@ -8715,7 +8711,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>9</v>
       </c>
@@ -8738,7 +8734,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>9</v>
       </c>
@@ -8761,7 +8757,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>9</v>
       </c>
@@ -8784,7 +8780,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>9</v>
       </c>
@@ -8807,7 +8803,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>9</v>
       </c>
@@ -8830,7 +8826,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>9</v>
       </c>
@@ -8853,7 +8849,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>9</v>
       </c>
@@ -8876,7 +8872,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>9</v>
       </c>
@@ -8899,7 +8895,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>9</v>
       </c>
@@ -8922,7 +8918,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>9</v>
       </c>
@@ -8945,7 +8941,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>9</v>
       </c>
@@ -8968,7 +8964,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>9</v>
       </c>
@@ -8991,7 +8987,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>9</v>
       </c>
@@ -9014,7 +9010,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>9</v>
       </c>
@@ -9037,7 +9033,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>9</v>
       </c>
@@ -9060,7 +9056,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>9</v>
       </c>
@@ -9083,7 +9079,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>9</v>
       </c>
@@ -9106,7 +9102,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>9</v>
       </c>
@@ -9129,7 +9125,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>9</v>
       </c>
@@ -9152,7 +9148,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>9</v>
       </c>
@@ -9175,7 +9171,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>9</v>
       </c>
@@ -9198,7 +9194,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>9</v>
       </c>
@@ -9221,7 +9217,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>9</v>
       </c>
@@ -9244,7 +9240,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>9</v>
       </c>
@@ -9267,7 +9263,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>9</v>
       </c>
@@ -9290,7 +9286,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>9</v>
       </c>
@@ -9313,7 +9309,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>9</v>
       </c>
@@ -9336,7 +9332,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>9</v>
       </c>
@@ -9359,7 +9355,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>9</v>
       </c>
@@ -9382,7 +9378,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>9</v>
       </c>
@@ -9405,7 +9401,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>9</v>
       </c>
@@ -9428,7 +9424,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>9</v>
       </c>
@@ -9451,7 +9447,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>9</v>
       </c>
@@ -9474,7 +9470,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>9</v>
       </c>
@@ -9497,7 +9493,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>9</v>
       </c>
@@ -9520,7 +9516,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>9</v>
       </c>
@@ -9543,7 +9539,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>9</v>
       </c>
@@ -9566,7 +9562,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>9</v>
       </c>
@@ -9589,7 +9585,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>9</v>
       </c>
@@ -9612,7 +9608,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>9</v>
       </c>
@@ -9635,7 +9631,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>9</v>
       </c>
@@ -9658,7 +9654,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>9</v>
       </c>
@@ -9681,7 +9677,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>9</v>
       </c>
@@ -9704,7 +9700,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>9</v>
       </c>
@@ -9727,7 +9723,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>9</v>
       </c>
@@ -9750,7 +9746,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>9</v>
       </c>
@@ -9773,7 +9769,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>9</v>
       </c>
@@ -9796,7 +9792,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>9</v>
       </c>
@@ -9819,7 +9815,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>9</v>
       </c>
@@ -9842,7 +9838,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>9</v>
       </c>
@@ -9865,7 +9861,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>9</v>
       </c>
@@ -9888,7 +9884,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>9</v>
       </c>
@@ -9911,7 +9907,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>9</v>
       </c>
@@ -9934,7 +9930,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>9</v>
       </c>
@@ -9957,7 +9953,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>9</v>
       </c>
@@ -9980,7 +9976,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>9</v>
       </c>
@@ -10003,7 +9999,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>9</v>
       </c>
@@ -10026,7 +10022,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>9</v>
       </c>
@@ -10049,7 +10045,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>9</v>
       </c>
@@ -10072,7 +10068,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>9</v>
       </c>
@@ -10095,7 +10091,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>9</v>
       </c>
@@ -10118,7 +10114,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>9</v>
       </c>
@@ -10141,7 +10137,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>9</v>
       </c>
@@ -10164,7 +10160,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>9</v>
       </c>
@@ -10187,7 +10183,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>9</v>
       </c>
@@ -10210,7 +10206,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>9</v>
       </c>
@@ -10233,7 +10229,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>9</v>
       </c>
@@ -10256,7 +10252,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>9</v>
       </c>
@@ -10279,7 +10275,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>9</v>
       </c>
@@ -10302,7 +10298,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>9</v>
       </c>
@@ -10325,7 +10321,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>9</v>
       </c>
@@ -10348,7 +10344,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>9</v>
       </c>
@@ -10371,7 +10367,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>9</v>
       </c>
@@ -10394,7 +10390,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>9</v>
       </c>
@@ -10417,7 +10413,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>9</v>
       </c>
@@ -10440,7 +10436,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>9</v>
       </c>
@@ -10463,7 +10459,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>9</v>
       </c>
@@ -10486,7 +10482,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>9</v>
       </c>
@@ -10509,7 +10505,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>9</v>
       </c>
@@ -10532,7 +10528,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>9</v>
       </c>
@@ -10555,7 +10551,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>9</v>
       </c>
@@ -10578,7 +10574,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>9</v>
       </c>
@@ -10601,7 +10597,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>9</v>
       </c>
@@ -10624,7 +10620,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>9</v>
       </c>
@@ -10647,7 +10643,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>9</v>
       </c>
@@ -10670,7 +10666,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>9</v>
       </c>
@@ -10693,7 +10689,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>9</v>
       </c>
@@ -10716,7 +10712,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>9</v>
       </c>
@@ -10739,7 +10735,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>9</v>
       </c>
@@ -10762,7 +10758,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>9</v>
       </c>
@@ -10785,7 +10781,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>9</v>
       </c>
@@ -10808,7 +10804,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>9</v>
       </c>
@@ -10831,7 +10827,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>9</v>
       </c>
@@ -10854,7 +10850,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>9</v>
       </c>
@@ -10877,7 +10873,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>9</v>
       </c>
@@ -10900,7 +10896,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>9</v>
       </c>
@@ -10923,7 +10919,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>9</v>
       </c>
@@ -10946,7 +10942,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>9</v>
       </c>
@@ -10969,7 +10965,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>9</v>
       </c>
@@ -10992,7 +10988,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="330" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>9</v>
       </c>
@@ -11015,7 +11011,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="331" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>9</v>
       </c>
@@ -11038,7 +11034,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>9</v>
       </c>
@@ -11061,7 +11057,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="333" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>9</v>
       </c>
@@ -11084,7 +11080,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>9</v>
       </c>
@@ -11107,7 +11103,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>9</v>
       </c>
@@ -11130,7 +11126,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>9</v>
       </c>
@@ -11153,7 +11149,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>9</v>
       </c>
@@ -11176,7 +11172,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>9</v>
       </c>
@@ -11199,7 +11195,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>9</v>
       </c>
@@ -11222,7 +11218,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>9</v>
       </c>
@@ -11245,7 +11241,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>9</v>
       </c>
@@ -11268,7 +11264,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>9</v>
       </c>
@@ -11291,7 +11287,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>9</v>
       </c>
@@ -11314,7 +11310,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>9</v>
       </c>
@@ -11337,7 +11333,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>9</v>
       </c>
@@ -11360,7 +11356,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>9</v>
       </c>
@@ -11383,7 +11379,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>9</v>
       </c>
@@ -11406,7 +11402,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>9</v>
       </c>
@@ -11429,7 +11425,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>9</v>
       </c>
@@ -11452,7 +11448,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>9</v>
       </c>
@@ -11475,7 +11471,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>9</v>
       </c>
@@ -11498,7 +11494,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>9</v>
       </c>
@@ -11521,7 +11517,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>9</v>
       </c>
@@ -11544,7 +11540,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>9</v>
       </c>
@@ -11567,7 +11563,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>9</v>
       </c>
@@ -11590,7 +11586,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>9</v>
       </c>
@@ -11613,7 +11609,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>9</v>
       </c>
@@ -11636,7 +11632,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>9</v>
       </c>
@@ -11659,7 +11655,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>9</v>
       </c>
@@ -11682,7 +11678,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>9</v>
       </c>
@@ -11705,7 +11701,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>9</v>
       </c>
@@ -11728,7 +11724,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>9</v>
       </c>
@@ -11751,7 +11747,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>9</v>
       </c>
@@ -11774,7 +11770,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>9</v>
       </c>
@@ -11797,7 +11793,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>9</v>
       </c>
@@ -11820,7 +11816,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>9</v>
       </c>
@@ -11843,7 +11839,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>9</v>
       </c>
@@ -11866,7 +11862,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>9</v>
       </c>
@@ -11889,7 +11885,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>9</v>
       </c>
@@ -11912,7 +11908,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>9</v>
       </c>
@@ -11935,7 +11931,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>9</v>
       </c>
@@ -11958,7 +11954,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>9</v>
       </c>
@@ -11981,7 +11977,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>9</v>
       </c>
@@ -12004,7 +12000,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>9</v>
       </c>
@@ -12027,7 +12023,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>9</v>
       </c>
@@ -12050,7 +12046,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>9</v>
       </c>
@@ -12073,7 +12069,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>9</v>
       </c>
@@ -12096,7 +12092,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>9</v>
       </c>
@@ -12119,7 +12115,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>9</v>
       </c>
@@ -12142,7 +12138,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>9</v>
       </c>
@@ -12165,7 +12161,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>9</v>
       </c>
@@ -12188,7 +12184,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>9</v>
       </c>
@@ -12211,7 +12207,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>9</v>
       </c>
@@ -12234,7 +12230,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>9</v>
       </c>
@@ -12257,7 +12253,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>9</v>
       </c>
@@ -12280,7 +12276,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>9</v>
       </c>
@@ -12303,7 +12299,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>9</v>
       </c>
@@ -12326,7 +12322,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>9</v>
       </c>
@@ -12349,7 +12345,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>9</v>
       </c>
@@ -12372,7 +12368,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>9</v>
       </c>
@@ -12395,7 +12391,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>9</v>
       </c>
@@ -12418,7 +12414,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>9</v>
       </c>
@@ -12441,7 +12437,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>9</v>
       </c>
@@ -12464,7 +12460,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>9</v>
       </c>
@@ -12487,7 +12483,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>9</v>
       </c>
@@ -12510,7 +12506,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>9</v>
       </c>
@@ -12533,7 +12529,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>9</v>
       </c>
@@ -12556,7 +12552,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>9</v>
       </c>
@@ -12579,7 +12575,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>9</v>
       </c>
@@ -12602,7 +12598,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="400" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>9</v>
       </c>
@@ -12625,7 +12621,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>9</v>
       </c>
@@ -12648,7 +12644,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>9</v>
       </c>
@@ -12671,7 +12667,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>9</v>
       </c>
@@ -12694,7 +12690,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>9</v>
       </c>
@@ -12717,7 +12713,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>9</v>
       </c>
@@ -12740,7 +12736,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>9</v>
       </c>
@@ -12763,7 +12759,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>9</v>
       </c>
@@ -12786,7 +12782,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="408" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>9</v>
       </c>
@@ -12809,7 +12805,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>9</v>
       </c>
@@ -12832,7 +12828,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>9</v>
       </c>
@@ -12855,7 +12851,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>9</v>
       </c>
@@ -12878,7 +12874,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>9</v>
       </c>
@@ -12901,7 +12897,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>9</v>
       </c>
@@ -12924,7 +12920,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>9</v>
       </c>
@@ -12947,7 +12943,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>9</v>
       </c>
@@ -12970,7 +12966,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>9</v>
       </c>
@@ -12993,7 +12989,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="417" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>9</v>
       </c>
@@ -13016,7 +13012,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="418" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>9</v>
       </c>
@@ -13039,7 +13035,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="419" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>9</v>
       </c>
@@ -13062,7 +13058,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="420" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>9</v>
       </c>
@@ -13085,7 +13081,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="421" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>9</v>
       </c>
@@ -13134,7 +13130,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="423" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>9</v>
       </c>
@@ -13157,7 +13153,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="424" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>9</v>
       </c>
@@ -13180,7 +13176,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="425" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>9</v>
       </c>
@@ -13203,7 +13199,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="426" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>9</v>
       </c>
@@ -13226,7 +13222,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="427" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>9</v>
       </c>
@@ -13249,7 +13245,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="428" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>9</v>
       </c>
@@ -13272,7 +13268,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="429" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>9</v>
       </c>
@@ -13295,7 +13291,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="430" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>9</v>
       </c>
@@ -13318,7 +13314,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="431" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>9</v>
       </c>
@@ -13341,7 +13337,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="432" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>9</v>
       </c>
@@ -13364,7 +13360,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>9</v>
       </c>
@@ -13387,7 +13383,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>9</v>
       </c>
@@ -13410,7 +13406,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>9</v>
       </c>
@@ -13433,7 +13429,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>9</v>
       </c>
@@ -13456,7 +13452,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>9</v>
       </c>
@@ -13479,7 +13475,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>9</v>
       </c>
@@ -13502,7 +13498,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="439" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>9</v>
       </c>
@@ -13525,7 +13521,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="440" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>9</v>
       </c>
@@ -13548,7 +13544,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>9</v>
       </c>
@@ -13571,7 +13567,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="442" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>9</v>
       </c>
@@ -13594,7 +13590,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>9</v>
       </c>
@@ -13617,7 +13613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>9</v>
       </c>
@@ -13640,7 +13636,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>9</v>
       </c>
@@ -13663,7 +13659,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>9</v>
       </c>
@@ -13686,7 +13682,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>9</v>
       </c>
@@ -13709,7 +13705,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>9</v>
       </c>
@@ -13732,7 +13728,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>9</v>
       </c>
@@ -13755,7 +13751,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>9</v>
       </c>
@@ -13778,7 +13774,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="451" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>9</v>
       </c>
@@ -13801,7 +13797,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>9</v>
       </c>
@@ -13824,7 +13820,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="453" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>9</v>
       </c>
@@ -13847,7 +13843,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="454" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>9</v>
       </c>
@@ -13870,7 +13866,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>9</v>
       </c>
@@ -13893,7 +13889,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>9</v>
       </c>
@@ -13916,7 +13912,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="457" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>9</v>
       </c>
@@ -13939,7 +13935,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="458" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>9</v>
       </c>
@@ -13962,7 +13958,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="459" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>9</v>
       </c>
@@ -13985,7 +13981,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>9</v>
       </c>
@@ -14008,7 +14004,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>9</v>
       </c>
@@ -14031,7 +14027,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="462" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>9</v>
       </c>
@@ -14054,7 +14050,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="463" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>9</v>
       </c>
@@ -14077,7 +14073,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="464" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>9</v>
       </c>
@@ -14100,7 +14096,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="465" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>9</v>
       </c>
@@ -14123,7 +14119,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="466" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>9</v>
       </c>
@@ -14146,7 +14142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="467" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>9</v>
       </c>
@@ -14169,7 +14165,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="468" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>9</v>
       </c>
@@ -14192,7 +14188,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="469" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>9</v>
       </c>
@@ -14215,7 +14211,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="470" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>9</v>
       </c>
@@ -14238,7 +14234,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="471" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>9</v>
       </c>
@@ -14261,7 +14257,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="472" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>9</v>
       </c>
@@ -14284,7 +14280,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="473" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>9</v>
       </c>
@@ -14307,7 +14303,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="474" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>9</v>
       </c>
@@ -14330,7 +14326,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="475" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>9</v>
       </c>
@@ -14353,7 +14349,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="476" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>9</v>
       </c>
@@ -14376,7 +14372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="477" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>9</v>
       </c>
@@ -14399,7 +14395,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="478" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>9</v>
       </c>
@@ -14422,7 +14418,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="479" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>9</v>
       </c>
@@ -14445,7 +14441,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="480" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>9</v>
       </c>
@@ -14468,7 +14464,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="481" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>9</v>
       </c>
@@ -14491,7 +14487,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="482" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>9</v>
       </c>
@@ -14514,7 +14510,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="483" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>9</v>
       </c>
@@ -14537,7 +14533,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="484" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>9</v>
       </c>
@@ -14560,7 +14556,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="485" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>9</v>
       </c>
@@ -14583,7 +14579,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="486" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>9</v>
       </c>
@@ -14606,7 +14602,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="487" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>9</v>
       </c>
@@ -14629,7 +14625,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>9</v>
       </c>
@@ -14652,7 +14648,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>9</v>
       </c>
@@ -14675,7 +14671,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="490" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>9</v>
       </c>
@@ -14698,7 +14694,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>9</v>
       </c>
@@ -14721,7 +14717,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="492" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>9</v>
       </c>
@@ -14744,7 +14740,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="493" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>9</v>
       </c>
@@ -14767,7 +14763,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>9</v>
       </c>
@@ -14790,7 +14786,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>9</v>
       </c>
@@ -14813,7 +14809,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="496" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>9</v>
       </c>
@@ -14836,7 +14832,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>9</v>
       </c>
@@ -14859,7 +14855,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>9</v>
       </c>
@@ -14882,7 +14878,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>9</v>
       </c>
@@ -14905,7 +14901,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>9</v>
       </c>
@@ -14928,7 +14924,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>9</v>
       </c>
@@ -14951,7 +14947,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="502" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>9</v>
       </c>
@@ -14974,7 +14970,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>9</v>
       </c>
@@ -14997,7 +14993,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>9</v>
       </c>
@@ -15020,7 +15016,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>9</v>
       </c>
@@ -15043,7 +15039,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>9</v>
       </c>
@@ -15066,7 +15062,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>9</v>
       </c>
@@ -15089,7 +15085,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>9</v>
       </c>
@@ -15112,7 +15108,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="509" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>9</v>
       </c>
@@ -15135,7 +15131,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>9</v>
       </c>
@@ -15158,7 +15154,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>9</v>
       </c>
@@ -15181,7 +15177,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="512" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>9</v>
       </c>
@@ -15204,7 +15200,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="513" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>9</v>
       </c>
@@ -15227,7 +15223,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="514" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>9</v>
       </c>
@@ -15250,7 +15246,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="515" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>9</v>
       </c>
@@ -15273,7 +15269,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="516" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>9</v>
       </c>
@@ -15296,7 +15292,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="517" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>9</v>
       </c>
@@ -15319,7 +15315,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="518" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>9</v>
       </c>
@@ -15342,7 +15338,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="519" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>9</v>
       </c>
@@ -15365,7 +15361,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="520" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>9</v>
       </c>
@@ -15388,7 +15384,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="521" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>9</v>
       </c>
@@ -15411,7 +15407,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="522" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>9</v>
       </c>
@@ -15437,7 +15433,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="523" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>9</v>
       </c>
@@ -15460,7 +15456,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="524" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>9</v>
       </c>
@@ -15483,7 +15479,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="525" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>9</v>
       </c>
@@ -15506,7 +15502,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="526" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>9</v>
       </c>
@@ -15532,7 +15528,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="527" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>9</v>
       </c>
@@ -15578,7 +15574,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="529" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>9</v>
       </c>
@@ -15601,7 +15597,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="530" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>9</v>
       </c>
@@ -15624,7 +15620,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="531" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>9</v>
       </c>
@@ -15647,7 +15643,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="532" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>9</v>
       </c>
@@ -15670,7 +15666,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="533" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>9</v>
       </c>
@@ -15693,7 +15689,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="534" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>9</v>
       </c>
@@ -15716,7 +15712,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="535" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>9</v>
       </c>
@@ -15739,7 +15735,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="536" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>9</v>
       </c>
@@ -15762,7 +15758,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="537" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>9</v>
       </c>
@@ -15811,7 +15807,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="539" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>9</v>
       </c>
@@ -15834,7 +15830,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="540" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>9</v>
       </c>
@@ -15857,7 +15853,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="541" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>9</v>
       </c>
@@ -15880,7 +15876,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="542" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>9</v>
       </c>
@@ -15903,7 +15899,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="543" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>9</v>
       </c>
@@ -15926,7 +15922,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="544" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>9</v>
       </c>
@@ -15949,7 +15945,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>9</v>
       </c>
@@ -15972,7 +15968,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>9</v>
       </c>
@@ -15995,7 +15991,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>9</v>
       </c>
@@ -16018,7 +16014,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>9</v>
       </c>
@@ -16041,7 +16037,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>9</v>
       </c>
@@ -16064,7 +16060,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>9</v>
       </c>
@@ -16087,7 +16083,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>9</v>
       </c>
@@ -16133,7 +16129,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="553" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>9</v>
       </c>
@@ -16156,7 +16152,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>9</v>
       </c>
@@ -16179,7 +16175,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>9</v>
       </c>
@@ -16202,7 +16198,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="556" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>9</v>
       </c>
@@ -16225,7 +16221,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>9</v>
       </c>
@@ -16248,7 +16244,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>9</v>
       </c>
@@ -16271,7 +16267,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>9</v>
       </c>
@@ -16294,7 +16290,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="560" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>9</v>
       </c>
@@ -16317,7 +16313,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="561" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>9</v>
       </c>
@@ -16340,7 +16336,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="562" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>9</v>
       </c>
@@ -16363,7 +16359,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="563" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>9</v>
       </c>
@@ -16386,7 +16382,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="564" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>9</v>
       </c>
@@ -16409,7 +16405,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="565" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>9</v>
       </c>
@@ -16432,7 +16428,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="566" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>9</v>
       </c>
@@ -16455,7 +16451,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="567" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>9</v>
       </c>
@@ -16478,7 +16474,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="568" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>9</v>
       </c>
